--- a/artfynd/A 29250-2024 artfynd.xlsx
+++ b/artfynd/A 29250-2024 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY32"/>
+  <dimension ref="A1:AY33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4199,6 +4199,108 @@
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>131085086</v>
+      </c>
+      <c r="B33" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>585166</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7060188</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
